--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TranAnhDuy_Ver1.0.0.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TranAnhDuy_Ver1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="957" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="957" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="491">
   <si>
     <t>Description</t>
   </si>
@@ -862,9 +862,6 @@
     <t>User's birthdate</t>
   </si>
   <si>
-    <t>Username existed.</t>
-  </si>
-  <si>
     <t>User login</t>
   </si>
   <si>
@@ -1601,6 +1598,12 @@
   </si>
   <si>
     <t>Get all comments for a user failed</t>
+  </si>
+  <si>
+    <t>Database error occurred!</t>
+  </si>
+  <si>
+    <t>You must login to do this action.</t>
   </si>
 </sst>
 </file>
@@ -3223,9 +3226,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3242,6 +3242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13039,13 +13042,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13193,68 +13196,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  "data":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "username":"vutruong",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  }</a:t>
+            <a:t>  "data":null</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13274,13 +13216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14693,10 +14635,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -14715,7 +14657,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -14737,14 +14679,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>309</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -14758,14 +14700,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>309</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -14779,7 +14721,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -14800,14 +14742,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -14821,7 +14763,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -14844,12 +14786,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -14877,7 +14819,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -14912,19 +14854,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -14966,10 +14908,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -14984,13 +14926,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -15006,8 +14948,8 @@
       <c r="H16" s="77"/>
       <c r="I16" s="139"/>
       <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="268"/>
+      <c r="K16" s="275"/>
+      <c r="L16" s="267"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -15170,7 +15112,7 @@
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="66"/>
       <c r="B26" s="276" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C26" s="276"/>
       <c r="D26" s="276"/>
@@ -15188,12 +15130,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="273"/>
       <c r="F27" s="166" t="s">
         <v>130</v>
       </c>
@@ -15288,7 +15230,7 @@
       <c r="D30" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="268"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="75" t="s">
         <v>146</v>
       </c>
@@ -15321,7 +15263,7 @@
       <c r="D31" s="266" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>199</v>
       </c>
@@ -15420,7 +15362,7 @@
       <c r="D34" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75" t="s">
         <v>180</v>
       </c>
@@ -15604,7 +15546,7 @@
       <c r="B40" s="93"/>
       <c r="C40" s="94"/>
       <c r="D40" s="266"/>
-      <c r="E40" s="268"/>
+      <c r="E40" s="267"/>
       <c r="F40" s="75"/>
       <c r="G40" s="77"/>
       <c r="H40" s="77"/>
@@ -15927,7 +15869,7 @@
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="63"/>
       <c r="B59" s="277" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" s="277"/>
       <c r="D59" s="277"/>
@@ -15947,12 +15889,12 @@
     </row>
     <row r="60" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="85"/>
-      <c r="B60" s="272" t="s">
+      <c r="B60" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="273"/>
-      <c r="D60" s="273"/>
-      <c r="E60" s="274"/>
+      <c r="C60" s="272"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="273"/>
       <c r="F60" s="166" t="s">
         <v>130</v>
       </c>
@@ -16047,7 +15989,7 @@
       <c r="D63" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="268"/>
+      <c r="E63" s="267"/>
       <c r="F63" s="75" t="s">
         <v>146</v>
       </c>
@@ -16109,7 +16051,7 @@
       <c r="B65" s="93"/>
       <c r="C65" s="94"/>
       <c r="D65" s="266"/>
-      <c r="E65" s="268"/>
+      <c r="E65" s="267"/>
       <c r="F65" s="75"/>
       <c r="G65" s="77"/>
       <c r="H65" s="77"/>
@@ -16572,10 +16514,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -16594,7 +16536,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -16616,14 +16558,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>246</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -16637,14 +16579,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>246</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -16658,7 +16600,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -16679,14 +16621,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>251</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -16700,7 +16642,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -16723,12 +16665,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -16756,7 +16698,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -16791,19 +16733,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -16845,10 +16787,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -16863,13 +16805,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -16878,10 +16820,10 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>318</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>319</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>169</v>
@@ -16899,7 +16841,7 @@
         <v>174</v>
       </c>
       <c r="J16" s="162" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K16" s="164"/>
       <c r="L16" s="163"/>
@@ -16911,10 +16853,10 @@
       <c r="A17" s="85"/>
       <c r="B17" s="168"/>
       <c r="C17" s="199" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="170" t="s">
         <v>169</v>
@@ -16929,10 +16871,10 @@
         <v>50</v>
       </c>
       <c r="I17" s="171" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" s="283" t="s">
         <v>316</v>
-      </c>
-      <c r="J17" s="283" t="s">
-        <v>317</v>
       </c>
       <c r="K17" s="284"/>
       <c r="L17" s="285"/>
@@ -16944,10 +16886,10 @@
       <c r="A18" s="85"/>
       <c r="B18" s="168"/>
       <c r="C18" s="199" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E18" s="170" t="s">
         <v>169</v>
@@ -16962,10 +16904,10 @@
         <v>50</v>
       </c>
       <c r="I18" s="171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J18" s="286" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K18" s="284"/>
       <c r="L18" s="285"/>
@@ -17131,7 +17073,7 @@
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="276" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C28" s="276"/>
       <c r="D28" s="276"/>
@@ -17149,12 +17091,12 @@
     </row>
     <row r="29" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="166" t="s">
         <v>130</v>
       </c>
@@ -17249,7 +17191,7 @@
       <c r="D32" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="268"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="75" t="s">
         <v>146</v>
       </c>
@@ -17313,7 +17255,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -17636,7 +17578,7 @@
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
       <c r="B53" s="277" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="277"/>
       <c r="D53" s="277"/>
@@ -17656,12 +17598,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -17756,7 +17698,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -17818,7 +17760,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -18237,10 +18179,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -18279,10 +18221,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -18301,7 +18243,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -18323,14 +18265,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>245</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -18344,14 +18286,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>245</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -18365,7 +18307,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -18386,14 +18328,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -18407,7 +18349,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -18430,12 +18372,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -18463,7 +18405,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -18498,19 +18440,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -18552,10 +18494,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>169</v>
@@ -18570,13 +18512,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -18585,10 +18527,10 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>169</v>
@@ -18603,13 +18545,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J16" s="280" t="s">
-        <v>450</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>449</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -18638,11 +18580,11 @@
       <c r="I17" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="J17" s="275" t="s">
-        <v>347</v>
-      </c>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
+      <c r="J17" s="274" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -18658,8 +18600,8 @@
       <c r="H18" s="77"/>
       <c r="I18" s="139"/>
       <c r="J18" s="266"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="267"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -18822,7 +18764,7 @@
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="276" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" s="276"/>
       <c r="D28" s="276"/>
@@ -18840,12 +18782,12 @@
     </row>
     <row r="29" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="166" t="s">
         <v>130</v>
       </c>
@@ -18940,7 +18882,7 @@
       <c r="D32" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="268"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="75" t="s">
         <v>146</v>
       </c>
@@ -19004,7 +18946,7 @@
       <c r="B34" s="87"/>
       <c r="C34" s="97"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -19018,57 +18960,43 @@
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="63"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="281" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="282"/>
-      <c r="F35" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="77">
-        <v>1</v>
-      </c>
-      <c r="J35" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="K35" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="76" t="s">
-        <v>202</v>
-      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="76"/>
       <c r="M35" s="63"/>
       <c r="N35" s="63"/>
       <c r="O35" s="63"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="63"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="76"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="79"/>
       <c r="M36" s="63"/>
       <c r="N36" s="63"/>
       <c r="O36" s="63"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="63"/>
-      <c r="B37" s="79"/>
+      <c r="B37" s="33" t="s">
+        <v>211</v>
+      </c>
       <c r="C37" s="88"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
@@ -19085,9 +19013,7 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="33" t="s">
-        <v>211</v>
-      </c>
+      <c r="B38" s="79"/>
       <c r="C38" s="88"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
@@ -19342,117 +19268,131 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="79"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
       <c r="M53" s="63"/>
       <c r="N53" s="63"/>
       <c r="O53" s="63"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="B54" s="277" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="277"/>
+      <c r="D54" s="277"/>
       <c r="E54" s="63"/>
       <c r="F54" s="63"/>
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
+      <c r="J54" s="63" t="s">
+        <v>143</v>
+      </c>
       <c r="K54" s="63"/>
       <c r="L54" s="63"/>
       <c r="M54" s="63"/>
       <c r="N54" s="63"/>
       <c r="O54" s="63"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="277" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="277"/>
-      <c r="D55" s="277"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63" t="s">
+    <row r="55" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="85"/>
+      <c r="B55" s="271" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="272"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="166" t="s">
+        <v>135</v>
+      </c>
+      <c r="L55" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="63"/>
+      <c r="B56" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-    </row>
-    <row r="56" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="85"/>
-      <c r="B56" s="272" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
-      <c r="F56" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="166" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="I56" s="166" t="s">
-        <v>144</v>
-      </c>
-      <c r="J56" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="K56" s="166" t="s">
-        <v>135</v>
-      </c>
-      <c r="L56" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
+      <c r="G56" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="L56" s="76"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="63"/>
-      <c r="B57" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="91"/>
       <c r="E57" s="89"/>
-      <c r="F57" s="77" t="s">
-        <v>143</v>
+      <c r="F57" s="75" t="s">
+        <v>193</v>
       </c>
       <c r="G57" s="77" t="s">
         <v>143</v>
       </c>
       <c r="H57" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="77" t="s">
-        <v>143</v>
+        <v>192</v>
+      </c>
+      <c r="I57" s="77">
+        <v>1</v>
       </c>
       <c r="J57" s="77" t="s">
         <v>143</v>
       </c>
       <c r="K57" s="77" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="63"/>
@@ -19462,16 +19402,16 @@
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="63"/>
       <c r="B58" s="87"/>
-      <c r="C58" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="91"/>
-      <c r="E58" s="89"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="279" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="267"/>
       <c r="F58" s="75" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="G58" s="77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H58" s="77" t="s">
         <v>192</v>
@@ -19485,7 +19425,9 @@
       <c r="K58" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="L58" s="76"/>
+      <c r="L58" s="131" t="s">
+        <v>219</v>
+      </c>
       <c r="M58" s="63"/>
       <c r="N58" s="63"/>
       <c r="O58" s="63"/>
@@ -19493,16 +19435,16 @@
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="63"/>
       <c r="B59" s="87"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="279" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="268"/>
+      <c r="C59" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="E59" s="89"/>
       <c r="F59" s="75" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="G59" s="77" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H59" s="77" t="s">
         <v>192</v>
@@ -19516,39 +19458,23 @@
       <c r="K59" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="L59" s="131" t="s">
-        <v>219</v>
-      </c>
+      <c r="L59" s="76"/>
       <c r="M59" s="63"/>
       <c r="N59" s="63"/>
       <c r="O59" s="63"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="63"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I60" s="77">
-        <v>1</v>
-      </c>
-      <c r="J60" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="K60" s="77" t="s">
-        <v>148</v>
-      </c>
+      <c r="B60" s="93"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="266"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
       <c r="L60" s="76"/>
       <c r="M60" s="63"/>
       <c r="N60" s="63"/>
@@ -19556,43 +19482,43 @@
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="63"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="266"/>
-      <c r="E61" s="268"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="76"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="79"/>
       <c r="M61" s="63"/>
       <c r="N61" s="63"/>
       <c r="O61" s="63"/>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="63"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="79"/>
+      <c r="B62" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
       <c r="M62" s="63"/>
       <c r="N62" s="63"/>
       <c r="O62" s="63"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="63"/>
-      <c r="B63" s="71" t="s">
-        <v>207</v>
-      </c>
+      <c r="B63" s="63"/>
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
@@ -19914,49 +19840,31 @@
       <c r="O81" s="63"/>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="63"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-    </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="96"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="96"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="96"/>
+      <c r="O82" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D61:E61"/>
+  <mergeCells count="19">
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
@@ -20024,10 +19932,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>351</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>352</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -20046,7 +19954,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -20068,14 +19976,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>351</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -20089,14 +19997,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>351</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -20110,7 +20018,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -20133,12 +20041,12 @@
       <c r="C7" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -20152,7 +20060,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -20175,12 +20083,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -20208,7 +20116,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -20243,19 +20151,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -20297,10 +20205,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>169</v>
@@ -20315,13 +20223,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -20330,10 +20238,10 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>355</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>356</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>169</v>
@@ -20348,13 +20256,13 @@
         <v>100</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>360</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>357</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>359</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -20363,7 +20271,7 @@
       <c r="A17" s="63"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>218</v>
@@ -20379,13 +20287,13 @@
         <v>135</v>
       </c>
       <c r="I17" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="275" t="s">
-        <v>361</v>
-      </c>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
+        <v>358</v>
+      </c>
+      <c r="J17" s="274" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -20401,8 +20309,8 @@
       <c r="H18" s="77"/>
       <c r="I18" s="139"/>
       <c r="J18" s="266"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="267"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -20565,7 +20473,7 @@
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="276" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C28" s="276"/>
       <c r="D28" s="276"/>
@@ -20583,12 +20491,12 @@
     </row>
     <row r="29" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="166" t="s">
         <v>130</v>
       </c>
@@ -20683,7 +20591,7 @@
       <c r="D32" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="268"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="75" t="s">
         <v>146</v>
       </c>
@@ -20747,7 +20655,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -21090,12 +20998,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -21190,7 +21098,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -21252,7 +21160,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -21677,7 +21585,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="A60" activeCellId="2" sqref="A58:XFD58 A59:XFD59 A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -21716,10 +21624,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -21738,7 +21646,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -21760,14 +21668,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>365</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -21781,14 +21689,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>369</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -21802,7 +21710,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -21823,14 +21731,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>251</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -21844,7 +21752,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -21867,12 +21775,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -21900,7 +21808,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -21935,19 +21843,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -21989,10 +21897,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -22007,13 +21915,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -22022,13 +21930,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>373</v>
-      </c>
       <c r="E16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -22036,13 +21944,13 @@
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
       <c r="I16" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="J16" s="274" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="275" t="s">
-        <v>375</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -22051,13 +21959,13 @@
       <c r="A17" s="63"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="D17" s="76" t="s">
-        <v>377</v>
-      </c>
       <c r="E17" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F17" s="77" t="s">
         <v>192</v>
@@ -22069,13 +21977,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="J17" s="275" t="s">
-        <v>378</v>
-      </c>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
+        <v>312</v>
+      </c>
+      <c r="J17" s="274" t="s">
+        <v>377</v>
+      </c>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -22091,8 +21999,8 @@
       <c r="H18" s="77"/>
       <c r="I18" s="139"/>
       <c r="J18" s="266"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="267"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -22255,7 +22163,7 @@
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="276" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" s="276"/>
       <c r="D28" s="276"/>
@@ -22273,12 +22181,12 @@
     </row>
     <row r="29" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="166" t="s">
         <v>130</v>
       </c>
@@ -22404,7 +22312,7 @@
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
       <c r="D33" s="266"/>
-      <c r="E33" s="268"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="75"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
@@ -22727,7 +22635,7 @@
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="63"/>
       <c r="B52" s="277" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="277"/>
       <c r="D52" s="277"/>
@@ -22747,12 +22655,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="272" t="s">
+      <c r="B53" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="274"/>
+      <c r="C53" s="272"/>
+      <c r="D53" s="272"/>
+      <c r="E53" s="273"/>
       <c r="F53" s="166" t="s">
         <v>130</v>
       </c>
@@ -22847,7 +22755,7 @@
       <c r="D56" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="268"/>
+      <c r="E56" s="267"/>
       <c r="F56" s="75" t="s">
         <v>146</v>
       </c>
@@ -22909,7 +22817,7 @@
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
       <c r="D58" s="266"/>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75"/>
       <c r="G58" s="77"/>
       <c r="H58" s="77"/>
@@ -23372,10 +23280,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -23394,7 +23302,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -23416,14 +23324,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>260</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -23437,14 +23345,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>260</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -23458,7 +23366,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -23479,14 +23387,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>251</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -23500,7 +23408,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -23523,12 +23431,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -23556,7 +23464,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -23591,19 +23499,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -23645,10 +23553,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -23663,13 +23571,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -23678,13 +23586,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>373</v>
-      </c>
       <c r="E16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -23696,13 +23604,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>375</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>383</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -23711,10 +23619,10 @@
       <c r="A17" s="63"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>141</v>
@@ -23729,13 +23637,13 @@
         <v>100</v>
       </c>
       <c r="I17" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="J17" s="275" t="s">
-        <v>363</v>
-      </c>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
+        <v>384</v>
+      </c>
+      <c r="J17" s="274" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -23744,7 +23652,7 @@
       <c r="A18" s="63"/>
       <c r="B18" s="74"/>
       <c r="C18" s="75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>218</v>
@@ -23759,13 +23667,13 @@
         <v>138</v>
       </c>
       <c r="H18" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="I18" s="137" t="s">
         <v>387</v>
       </c>
-      <c r="I18" s="137" t="s">
-        <v>388</v>
-      </c>
       <c r="J18" s="162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K18" s="164"/>
       <c r="L18" s="163"/>
@@ -23784,8 +23692,8 @@
       <c r="H19" s="77"/>
       <c r="I19" s="139"/>
       <c r="J19" s="266"/>
-      <c r="K19" s="267"/>
-      <c r="L19" s="268"/>
+      <c r="K19" s="275"/>
+      <c r="L19" s="267"/>
       <c r="M19" s="63"/>
       <c r="N19" s="63"/>
       <c r="O19" s="63"/>
@@ -23948,7 +23856,7 @@
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="66"/>
       <c r="B29" s="287" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C29" s="276"/>
       <c r="D29" s="276"/>
@@ -23966,12 +23874,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="272" t="s">
+      <c r="B30" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
       <c r="F30" s="166" t="s">
         <v>130</v>
       </c>
@@ -24066,7 +23974,7 @@
       <c r="D33" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="268"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="75" t="s">
         <v>146</v>
       </c>
@@ -24130,7 +24038,7 @@
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
       <c r="D35" s="266"/>
-      <c r="E35" s="268"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="75"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
@@ -24453,7 +24361,7 @@
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="63"/>
       <c r="B54" s="288" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C54" s="277"/>
       <c r="D54" s="277"/>
@@ -24473,12 +24381,12 @@
     </row>
     <row r="55" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="85"/>
-      <c r="B55" s="272" t="s">
+      <c r="B55" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="273"/>
-      <c r="D55" s="273"/>
-      <c r="E55" s="274"/>
+      <c r="C55" s="272"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="273"/>
       <c r="F55" s="166" t="s">
         <v>130</v>
       </c>
@@ -24573,7 +24481,7 @@
       <c r="D58" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75" t="s">
         <v>146</v>
       </c>
@@ -24635,7 +24543,7 @@
       <c r="B60" s="93"/>
       <c r="C60" s="94"/>
       <c r="D60" s="266"/>
-      <c r="E60" s="268"/>
+      <c r="E60" s="267"/>
       <c r="F60" s="75"/>
       <c r="G60" s="77"/>
       <c r="H60" s="77"/>
@@ -25099,10 +25007,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -25121,7 +25029,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -25143,14 +25051,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>261</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -25164,14 +25072,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>261</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -25185,7 +25093,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -25206,14 +25114,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>269</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -25227,7 +25135,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -25250,12 +25158,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -25283,7 +25191,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -25318,19 +25226,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -25372,13 +25280,13 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="E15" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="77" t="s">
         <v>192</v>
@@ -25390,13 +25298,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -25405,13 +25313,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>373</v>
-      </c>
       <c r="E16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -25423,13 +25331,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>384</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>375</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>383</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -25445,8 +25353,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -25609,7 +25517,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="287" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -25627,12 +25535,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -25727,7 +25635,7 @@
       <c r="D31" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
@@ -25791,7 +25699,7 @@
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
       <c r="D33" s="266"/>
-      <c r="E33" s="268"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="75"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
@@ -26114,7 +26022,7 @@
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="63"/>
       <c r="B52" s="288" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C52" s="277"/>
       <c r="D52" s="277"/>
@@ -26134,12 +26042,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="272" t="s">
+      <c r="B53" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="274"/>
+      <c r="C53" s="272"/>
+      <c r="D53" s="272"/>
+      <c r="E53" s="273"/>
       <c r="F53" s="166" t="s">
         <v>130</v>
       </c>
@@ -26234,7 +26142,7 @@
       <c r="D56" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="268"/>
+      <c r="E56" s="267"/>
       <c r="F56" s="75" t="s">
         <v>146</v>
       </c>
@@ -26296,7 +26204,7 @@
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
       <c r="D58" s="266"/>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75"/>
       <c r="G58" s="77"/>
       <c r="H58" s="77"/>
@@ -26758,10 +26666,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>391</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>392</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -26780,7 +26688,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -26802,14 +26710,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>393</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -26823,14 +26731,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>393</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -26844,7 +26752,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -26865,14 +26773,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -26886,7 +26794,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -26909,12 +26817,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -26942,7 +26850,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -26977,19 +26885,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -27031,10 +26939,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="78"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
@@ -27045,13 +26953,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="139" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J15" s="266" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="267"/>
-      <c r="L15" s="268"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="275"/>
+      <c r="L15" s="267"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -27067,8 +26975,8 @@
       <c r="H16" s="77"/>
       <c r="I16" s="139"/>
       <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="268"/>
+      <c r="K16" s="275"/>
+      <c r="L16" s="267"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -27231,7 +27139,7 @@
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="66"/>
       <c r="B26" s="276" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C26" s="276"/>
       <c r="D26" s="276"/>
@@ -27249,12 +27157,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="273"/>
       <c r="F27" s="166" t="s">
         <v>130</v>
       </c>
@@ -27349,7 +27257,7 @@
       <c r="D30" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="268"/>
+      <c r="E30" s="267"/>
       <c r="F30" s="75" t="s">
         <v>146</v>
       </c>
@@ -27413,11 +27321,11 @@
       <c r="B32" s="87"/>
       <c r="C32" s="92"/>
       <c r="D32" s="266" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="268"/>
+        <v>362</v>
+      </c>
+      <c r="E32" s="267"/>
       <c r="F32" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G32" s="77" t="s">
         <v>169</v>
@@ -27435,7 +27343,7 @@
         <v>138</v>
       </c>
       <c r="L32" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
@@ -27446,9 +27354,9 @@
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
       <c r="D33" s="266" t="s">
-        <v>397</v>
-      </c>
-      <c r="E33" s="268"/>
+        <v>396</v>
+      </c>
+      <c r="E33" s="267"/>
       <c r="F33" s="75" t="s">
         <v>218</v>
       </c>
@@ -27468,7 +27376,7 @@
         <v>138</v>
       </c>
       <c r="L33" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
@@ -27785,7 +27693,7 @@
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="63"/>
       <c r="B52" s="277" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="277"/>
       <c r="D52" s="277"/>
@@ -27805,12 +27713,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="272" t="s">
+      <c r="B53" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="274"/>
+      <c r="C53" s="272"/>
+      <c r="D53" s="272"/>
+      <c r="E53" s="273"/>
       <c r="F53" s="166" t="s">
         <v>130</v>
       </c>
@@ -27905,7 +27813,7 @@
       <c r="D56" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="268"/>
+      <c r="E56" s="267"/>
       <c r="F56" s="75" t="s">
         <v>146</v>
       </c>
@@ -27967,7 +27875,7 @@
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
       <c r="D58" s="266"/>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75"/>
       <c r="G58" s="77"/>
       <c r="H58" s="77"/>
@@ -28425,10 +28333,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -28447,7 +28355,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -28469,14 +28377,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>401</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -28490,14 +28398,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>401</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -28511,7 +28419,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -28532,14 +28440,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -28553,7 +28461,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -28576,12 +28484,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -28609,7 +28517,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -28644,19 +28552,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -28698,13 +28606,13 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="E15" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="77" t="s">
         <v>192</v>
@@ -28716,13 +28624,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -28731,13 +28639,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>201</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -28749,13 +28657,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>405</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>312</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -28771,8 +28679,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -28935,7 +28843,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -28953,12 +28861,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -29084,11 +28992,11 @@
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
       <c r="D32" s="281" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E32" s="282"/>
       <c r="F32" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G32" s="77" t="s">
         <v>169</v>
@@ -29106,7 +29014,7 @@
         <v>138</v>
       </c>
       <c r="L32" s="76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
@@ -29117,9 +29025,9 @@
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
       <c r="D33" s="266" t="s">
-        <v>386</v>
-      </c>
-      <c r="E33" s="268"/>
+        <v>385</v>
+      </c>
+      <c r="E33" s="267"/>
       <c r="F33" s="75" t="s">
         <v>218</v>
       </c>
@@ -29139,7 +29047,7 @@
         <v>138</v>
       </c>
       <c r="L33" s="76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
@@ -29150,7 +29058,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -29473,7 +29381,7 @@
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
       <c r="B53" s="277" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C53" s="277"/>
       <c r="D53" s="277"/>
@@ -29493,12 +29401,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -29593,7 +29501,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -29655,7 +29563,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -30118,10 +30026,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>410</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>411</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -30140,7 +30048,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -30162,14 +30070,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>413</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>412</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -30183,14 +30091,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>412</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -30204,7 +30112,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -30227,12 +30135,12 @@
       <c r="C7" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -30246,7 +30154,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -30269,12 +30177,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -30302,7 +30210,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -30337,19 +30245,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -30391,10 +30299,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>141</v>
@@ -30409,13 +30317,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -30424,7 +30332,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>218</v>
@@ -30442,13 +30350,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="J16" s="274" t="s">
         <v>416</v>
       </c>
-      <c r="J16" s="275" t="s">
-        <v>417</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -30464,8 +30372,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -30628,7 +30536,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -30646,12 +30554,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -30777,7 +30685,7 @@
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
       <c r="D32" s="266"/>
-      <c r="E32" s="268"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="75"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
@@ -31100,7 +31008,7 @@
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="63"/>
       <c r="B51" s="277" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C51" s="277"/>
       <c r="D51" s="277"/>
@@ -31120,12 +31028,12 @@
     </row>
     <row r="52" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="85"/>
-      <c r="B52" s="272" t="s">
+      <c r="B52" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="273"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="274"/>
+      <c r="C52" s="272"/>
+      <c r="D52" s="272"/>
+      <c r="E52" s="273"/>
       <c r="F52" s="166" t="s">
         <v>130</v>
       </c>
@@ -31220,7 +31128,7 @@
       <c r="D55" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="268"/>
+      <c r="E55" s="267"/>
       <c r="F55" s="75" t="s">
         <v>146</v>
       </c>
@@ -31282,7 +31190,7 @@
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
       <c r="D57" s="266"/>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75"/>
       <c r="G57" s="77"/>
       <c r="H57" s="77"/>
@@ -32341,10 +32249,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>418</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>419</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -32363,7 +32271,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -32385,14 +32293,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>265</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -32406,14 +32314,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>265</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -32427,7 +32335,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -32448,14 +32356,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>251</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -32469,7 +32377,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -32492,12 +32400,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -32525,7 +32433,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -32560,19 +32468,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -32614,10 +32522,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -32632,13 +32540,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -32647,13 +32555,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="77" t="s">
         <v>311</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>312</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -32665,13 +32573,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>423</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>312</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>422</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -32680,7 +32588,7 @@
       <c r="A17" s="63"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>218</v>
@@ -32698,13 +32606,13 @@
         <v>138</v>
       </c>
       <c r="I17" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="J17" s="266" t="s">
         <v>424</v>
       </c>
-      <c r="J17" s="266" t="s">
-        <v>425</v>
-      </c>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -32720,8 +32628,8 @@
       <c r="H18" s="77"/>
       <c r="I18" s="139"/>
       <c r="J18" s="266"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="267"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -32884,7 +32792,7 @@
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="276" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C28" s="276"/>
       <c r="D28" s="276"/>
@@ -32902,12 +32810,12 @@
     </row>
     <row r="29" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="85"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="166" t="s">
         <v>130</v>
       </c>
@@ -33002,7 +32910,7 @@
       <c r="D32" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="268"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="75" t="s">
         <v>146</v>
       </c>
@@ -33066,7 +32974,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -33389,7 +33297,7 @@
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
       <c r="B53" s="277" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C53" s="277"/>
       <c r="D53" s="277"/>
@@ -33409,12 +33317,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -33509,7 +33417,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -33571,7 +33479,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -34036,7 +33944,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -34055,7 +33963,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -34077,14 +33985,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>266</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -34098,14 +34006,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>266</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -34119,7 +34027,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -34140,14 +34048,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>266</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -34161,7 +34069,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -34184,12 +34092,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -34217,7 +34125,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -34252,19 +34160,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -34306,13 +34214,13 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="E15" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="77" t="s">
         <v>192</v>
@@ -34324,13 +34232,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="137" t="s">
-        <v>470</v>
-      </c>
-      <c r="J15" s="275" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>469</v>
+      </c>
+      <c r="J15" s="274" t="s">
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -34339,13 +34247,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D16" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="77" t="s">
         <v>311</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>312</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -34357,13 +34265,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>436</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>312</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>435</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -34379,8 +34287,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -34543,7 +34451,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -34561,12 +34469,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -34661,7 +34569,7 @@
       <c r="D31" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
@@ -34725,7 +34633,7 @@
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
       <c r="D33" s="266"/>
-      <c r="E33" s="268"/>
+      <c r="E33" s="267"/>
       <c r="F33" s="75"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
@@ -35048,7 +34956,7 @@
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="63"/>
       <c r="B52" s="277" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C52" s="277"/>
       <c r="D52" s="277"/>
@@ -35068,12 +34976,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="272" t="s">
+      <c r="B53" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="274"/>
+      <c r="C53" s="272"/>
+      <c r="D53" s="272"/>
+      <c r="E53" s="273"/>
       <c r="F53" s="166" t="s">
         <v>130</v>
       </c>
@@ -35168,7 +35076,7 @@
       <c r="D56" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="268"/>
+      <c r="E56" s="267"/>
       <c r="F56" s="75" t="s">
         <v>146</v>
       </c>
@@ -35230,7 +35138,7 @@
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
       <c r="D58" s="266"/>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75"/>
       <c r="G58" s="77"/>
       <c r="H58" s="77"/>
@@ -35695,7 +35603,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -35714,7 +35622,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -35736,14 +35644,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>267</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -35757,14 +35665,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>267</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -35778,7 +35686,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -35799,14 +35707,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -35820,7 +35728,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -35843,12 +35751,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -35876,7 +35784,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -35911,19 +35819,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -35965,10 +35873,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -35983,13 +35891,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -35998,13 +35906,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D16" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="77" t="s">
         <v>311</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>312</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -36016,13 +35924,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J16" s="280" t="s">
-        <v>375</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>374</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -36038,8 +35946,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -36202,7 +36110,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -36220,12 +36128,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -36320,7 +36228,7 @@
       <c r="D31" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
@@ -36384,14 +36292,14 @@
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
       <c r="D33" s="281" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E33" s="282"/>
       <c r="F33" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="77" t="s">
         <v>311</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>312</v>
       </c>
       <c r="H33" s="77" t="s">
         <v>192</v>
@@ -36406,7 +36314,7 @@
         <v>138</v>
       </c>
       <c r="L33" s="76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
@@ -36417,9 +36325,9 @@
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
       <c r="D34" s="266" t="s">
-        <v>415</v>
-      </c>
-      <c r="E34" s="268"/>
+        <v>414</v>
+      </c>
+      <c r="E34" s="267"/>
       <c r="F34" s="75" t="s">
         <v>218</v>
       </c>
@@ -36439,7 +36347,7 @@
         <v>138</v>
       </c>
       <c r="L34" s="76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
@@ -36450,7 +36358,7 @@
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
       <c r="D35" s="266"/>
-      <c r="E35" s="268"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="75"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
@@ -36773,7 +36681,7 @@
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="63"/>
       <c r="B54" s="277" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C54" s="277"/>
       <c r="D54" s="277"/>
@@ -36793,12 +36701,12 @@
     </row>
     <row r="55" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="85"/>
-      <c r="B55" s="272" t="s">
+      <c r="B55" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="273"/>
-      <c r="D55" s="273"/>
-      <c r="E55" s="274"/>
+      <c r="C55" s="272"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="273"/>
       <c r="F55" s="166" t="s">
         <v>130</v>
       </c>
@@ -36893,7 +36801,7 @@
       <c r="D58" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="268"/>
+      <c r="E58" s="267"/>
       <c r="F58" s="75" t="s">
         <v>146</v>
       </c>
@@ -36955,7 +36863,7 @@
       <c r="B60" s="93"/>
       <c r="C60" s="94"/>
       <c r="D60" s="266"/>
-      <c r="E60" s="268"/>
+      <c r="E60" s="267"/>
       <c r="F60" s="75"/>
       <c r="G60" s="77"/>
       <c r="H60" s="77"/>
@@ -37379,7 +37287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -37422,7 +37330,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -37441,7 +37349,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -37463,14 +37371,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>268</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -37484,14 +37392,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>268</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -37505,7 +37413,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -37526,14 +37434,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>253</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -37547,7 +37455,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -37570,12 +37478,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -37603,7 +37511,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -37638,19 +37546,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -37692,10 +37600,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>169</v>
@@ -37710,13 +37618,13 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J15" s="280" t="s">
-        <v>450</v>
-      </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+        <v>449</v>
+      </c>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -37725,13 +37633,13 @@
       <c r="A16" s="63"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>201</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="77" t="s">
         <v>192</v>
@@ -37743,13 +37651,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="137" t="s">
-        <v>313</v>
-      </c>
-      <c r="J16" s="275" t="s">
-        <v>405</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>312</v>
+      </c>
+      <c r="J16" s="274" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -37765,8 +37673,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -37929,7 +37837,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -37947,12 +37855,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -38047,7 +37955,7 @@
       <c r="D31" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
@@ -38111,9 +38019,9 @@
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
       <c r="D33" s="266" t="s">
-        <v>448</v>
-      </c>
-      <c r="E33" s="268"/>
+        <v>447</v>
+      </c>
+      <c r="E33" s="267"/>
       <c r="F33" s="75" t="s">
         <v>218</v>
       </c>
@@ -38133,7 +38041,7 @@
         <v>138</v>
       </c>
       <c r="L33" s="76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
@@ -38144,7 +38052,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -38467,7 +38375,7 @@
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
       <c r="B53" s="277" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C53" s="277"/>
       <c r="D53" s="277"/>
@@ -38487,12 +38395,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -38587,7 +38495,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -38649,7 +38557,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -39489,8 +39397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -39600,7 +39508,7 @@
         <v>1002</v>
       </c>
       <c r="D7" s="251" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E7" s="252"/>
       <c r="F7" s="194"/>
@@ -39619,7 +39527,7 @@
         <v>1004</v>
       </c>
       <c r="D8" s="251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E8" s="252"/>
       <c r="F8" s="194"/>
@@ -39638,7 +39546,7 @@
         <v>1005</v>
       </c>
       <c r="D9" s="251" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9" s="252"/>
       <c r="F9" s="194"/>
@@ -39657,7 +39565,7 @@
         <v>1006</v>
       </c>
       <c r="D10" s="251" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E10" s="252"/>
       <c r="F10" s="194"/>
@@ -39676,7 +39584,7 @@
         <v>1007</v>
       </c>
       <c r="D11" s="251" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E11" s="252"/>
       <c r="F11" s="194"/>
@@ -39695,7 +39603,7 @@
         <v>1008</v>
       </c>
       <c r="D12" s="251" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E12" s="252"/>
       <c r="F12" s="194"/>
@@ -39714,7 +39622,7 @@
         <v>1009</v>
       </c>
       <c r="D13" s="251" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="252"/>
       <c r="F13" s="194"/>
@@ -39733,7 +39641,7 @@
         <v>1010</v>
       </c>
       <c r="D14" s="251" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="252"/>
       <c r="F14" s="194"/>
@@ -39752,7 +39660,7 @@
         <v>1011</v>
       </c>
       <c r="D15" s="251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E15" s="252"/>
       <c r="F15" s="194"/>
@@ -39771,7 +39679,7 @@
         <v>1012</v>
       </c>
       <c r="D16" s="251" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E16" s="252"/>
       <c r="F16" s="194"/>
@@ -39790,7 +39698,7 @@
         <v>1013</v>
       </c>
       <c r="D17" s="251" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E17" s="252"/>
       <c r="F17" s="194"/>
@@ -39809,7 +39717,7 @@
         <v>1014</v>
       </c>
       <c r="D18" s="251" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E18" s="252"/>
       <c r="F18" s="194"/>
@@ -39828,7 +39736,7 @@
         <v>1015</v>
       </c>
       <c r="D19" s="251" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E19" s="252"/>
       <c r="F19" s="194"/>
@@ -39847,7 +39755,7 @@
         <v>1016</v>
       </c>
       <c r="D20" s="251" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E20" s="252"/>
       <c r="F20" s="194"/>
@@ -39866,7 +39774,7 @@
         <v>1017</v>
       </c>
       <c r="D21" s="251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E21" s="252"/>
       <c r="F21" s="194"/>
@@ -39885,7 +39793,7 @@
         <v>1018</v>
       </c>
       <c r="D22" s="251" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E22" s="252"/>
       <c r="F22" s="194"/>
@@ -40017,7 +39925,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="248" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E34" s="248"/>
       <c r="F34" s="123"/>
@@ -40032,7 +39940,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="248" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E35" s="248"/>
       <c r="F35" s="123"/>
@@ -40085,7 +39993,9 @@
       <c r="C39" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="248"/>
+      <c r="D39" s="248" t="s">
+        <v>490</v>
+      </c>
       <c r="E39" s="248"/>
       <c r="F39" s="123"/>
       <c r="G39" s="111"/>
@@ -40410,7 +40320,7 @@
     </row>
     <row r="72" spans="2:6" ht="15.75">
       <c r="B72" s="160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="118"/>
       <c r="D72" s="118"/>
@@ -40437,7 +40347,7 @@
         <v>93</v>
       </c>
       <c r="D74" s="255" t="s">
-        <v>243</v>
+        <v>489</v>
       </c>
       <c r="E74" s="255"/>
       <c r="F74" s="125"/>
@@ -40756,7 +40666,7 @@
         <v>165</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" s="102" t="s">
         <v>162</v>
@@ -40769,7 +40679,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="167" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="260"/>
       <c r="E6" s="147" t="s">
@@ -40779,10 +40689,10 @@
         <v>165</v>
       </c>
       <c r="G6" s="148" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I6" s="103"/>
       <c r="J6" s="38"/>
@@ -40792,7 +40702,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="260"/>
       <c r="E7" s="100" t="s">
@@ -40802,10 +40712,10 @@
         <v>165</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H7" s="102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I7" s="103"/>
       <c r="J7" s="38"/>
@@ -40815,20 +40725,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="167" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="260"/>
       <c r="E8" s="140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="142" t="s">
         <v>165</v>
       </c>
       <c r="G8" s="142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I8" s="144"/>
       <c r="J8" s="145"/>
@@ -40838,23 +40748,23 @@
         <v>5</v>
       </c>
       <c r="C9" s="167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="260"/>
       <c r="E9" s="147" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="148" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="149" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J9" s="38"/>
     </row>
@@ -40863,20 +40773,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="260"/>
       <c r="E10" s="140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10" s="142" t="s">
         <v>165</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H10" s="143" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I10" s="144"/>
       <c r="J10" s="145"/>
@@ -40886,23 +40796,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="261"/>
       <c r="E11" s="147" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="148" t="s">
         <v>165</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H11" s="149" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="150" t="s">
         <v>257</v>
-      </c>
-      <c r="I11" s="150" t="s">
-        <v>258</v>
       </c>
       <c r="J11" s="38"/>
     </row>
@@ -40911,7 +40821,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="262" t="s">
         <v>228</v>
@@ -40920,13 +40830,13 @@
         <v>160</v>
       </c>
       <c r="F12" s="156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" s="158" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I12" s="103"/>
       <c r="J12" s="38"/>
@@ -40936,23 +40846,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D13" s="263"/>
       <c r="E13" s="153" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" s="156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G13" s="154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H13" s="155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" s="144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J13" s="145"/>
     </row>
@@ -40961,20 +40871,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="263"/>
       <c r="E14" s="151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G14" s="156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H14" s="158" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I14" s="103"/>
       <c r="J14" s="38"/>
@@ -40984,20 +40894,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" s="263"/>
       <c r="E15" s="151" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="156" t="s">
-        <v>271</v>
-      </c>
       <c r="G15" s="156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H15" s="158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I15" s="103"/>
       <c r="J15" s="38"/>
@@ -41007,20 +40917,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="263"/>
       <c r="E16" s="151" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H16" s="158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16" s="103"/>
       <c r="J16" s="38"/>
@@ -41030,23 +40940,23 @@
         <v>13</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="263"/>
       <c r="E17" s="151" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H17" s="158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I17" s="150" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J17" s="38"/>
     </row>
@@ -41055,7 +40965,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="264" t="s">
         <v>159</v>
@@ -41064,13 +40974,13 @@
         <v>160</v>
       </c>
       <c r="F18" s="157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I18" s="103"/>
       <c r="J18" s="38"/>
@@ -41080,20 +40990,20 @@
         <v>15</v>
       </c>
       <c r="C19" s="180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="265"/>
       <c r="E19" s="152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" s="157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="157" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H19" s="159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I19" s="103"/>
       <c r="J19" s="38"/>
@@ -41103,20 +41013,20 @@
         <v>16</v>
       </c>
       <c r="C20" s="180" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="265"/>
       <c r="E20" s="152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F20" s="157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" s="157" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H20" s="159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I20" s="103"/>
       <c r="J20" s="38"/>
@@ -41126,20 +41036,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="180" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="265"/>
       <c r="E21" s="152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F21" s="157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G21" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H21" s="159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I21" s="103"/>
       <c r="J21" s="38"/>
@@ -41149,20 +41059,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="180" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="265"/>
       <c r="E22" s="152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G22" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H22" s="159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I22" s="103"/>
       <c r="J22" s="38"/>
@@ -41339,12 +41249,12 @@
       <c r="C4" s="266" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -41360,12 +41270,12 @@
       <c r="C5" s="266" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -41379,7 +41289,7 @@
         <v>166</v>
       </c>
       <c r="C6" s="165" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
@@ -41402,12 +41312,12 @@
       <c r="C7" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -41444,12 +41354,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -41512,19 +41422,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -41586,11 +41496,11 @@
       <c r="I15" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="275" t="s">
+      <c r="J15" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -41619,11 +41529,11 @@
       <c r="I16" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="275" t="s">
+      <c r="J16" s="274" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -41688,8 +41598,8 @@
       <c r="J18" s="266" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="267"/>
-      <c r="L18" s="268"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="267"/>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -41814,8 +41724,8 @@
       <c r="J22" s="266" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="267"/>
-      <c r="L22" s="268"/>
+      <c r="K22" s="275"/>
+      <c r="L22" s="267"/>
       <c r="M22" s="63"/>
       <c r="N22" s="63"/>
       <c r="O22" s="63"/>
@@ -41996,12 +41906,12 @@
     </row>
     <row r="33" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="85"/>
-      <c r="B33" s="272" t="s">
+      <c r="B33" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="273"/>
       <c r="F33" s="73" t="s">
         <v>130</v>
       </c>
@@ -42096,7 +42006,7 @@
       <c r="D36" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="268"/>
+      <c r="E36" s="267"/>
       <c r="F36" s="75" t="s">
         <v>146</v>
       </c>
@@ -42160,7 +42070,7 @@
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
       <c r="D38" s="266"/>
-      <c r="E38" s="268"/>
+      <c r="E38" s="267"/>
       <c r="F38" s="75"/>
       <c r="G38" s="77"/>
       <c r="H38" s="77"/>
@@ -42503,12 +42413,12 @@
     </row>
     <row r="58" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="85"/>
-      <c r="B58" s="272" t="s">
+      <c r="B58" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="273"/>
-      <c r="D58" s="273"/>
-      <c r="E58" s="274"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="273"/>
       <c r="F58" s="73" t="s">
         <v>130</v>
       </c>
@@ -42603,7 +42513,7 @@
       <c r="D61" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="268"/>
+      <c r="E61" s="267"/>
       <c r="F61" s="75" t="s">
         <v>146</v>
       </c>
@@ -42665,7 +42575,7 @@
       <c r="B63" s="93"/>
       <c r="C63" s="94"/>
       <c r="D63" s="266"/>
-      <c r="E63" s="268"/>
+      <c r="E63" s="267"/>
       <c r="F63" s="75"/>
       <c r="G63" s="77"/>
       <c r="H63" s="77"/>
@@ -43055,8 +42965,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -43073,6 +42981,8 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -43135,10 +43045,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -43157,7 +43067,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -43179,14 +43089,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>243</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -43200,14 +43110,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>243</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -43221,7 +43131,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -43244,12 +43154,12 @@
       <c r="C7" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -43286,12 +43196,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -43319,7 +43229,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -43354,19 +43264,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -43428,11 +43338,11 @@
       <c r="I15" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="275" t="s">
+      <c r="J15" s="274" t="s">
         <v>171</v>
       </c>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -43461,11 +43371,11 @@
       <c r="I16" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="275" t="s">
+      <c r="J16" s="274" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -43481,8 +43391,8 @@
       <c r="H17" s="77"/>
       <c r="I17" s="139"/>
       <c r="J17" s="266"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -43645,7 +43555,7 @@
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="276" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" s="276"/>
       <c r="D27" s="276"/>
@@ -43663,12 +43573,12 @@
     </row>
     <row r="28" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="85"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
       <c r="F28" s="166" t="s">
         <v>130</v>
       </c>
@@ -43763,7 +43673,7 @@
       <c r="D31" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
@@ -43827,11 +43737,11 @@
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
       <c r="D33" s="186" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E33" s="185"/>
       <c r="F33" s="129" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G33" s="77" t="s">
         <v>169</v>
@@ -43849,7 +43759,7 @@
         <v>138</v>
       </c>
       <c r="L33" s="131" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
@@ -43860,7 +43770,7 @@
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
       <c r="D34" s="266"/>
-      <c r="E34" s="268"/>
+      <c r="E34" s="267"/>
       <c r="F34" s="75"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
@@ -44183,7 +44093,7 @@
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="63"/>
       <c r="B53" s="277" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" s="277"/>
       <c r="D53" s="277"/>
@@ -44203,12 +44113,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
       <c r="F54" s="166" t="s">
         <v>130</v>
       </c>
@@ -44303,7 +44213,7 @@
       <c r="D57" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="268"/>
+      <c r="E57" s="267"/>
       <c r="F57" s="75" t="s">
         <v>146</v>
       </c>
@@ -44365,7 +44275,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="266"/>
-      <c r="E59" s="268"/>
+      <c r="E59" s="267"/>
       <c r="F59" s="75"/>
       <c r="G59" s="77"/>
       <c r="H59" s="77"/>
@@ -44827,10 +44737,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -44849,7 +44759,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -44871,14 +44781,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>244</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -44892,14 +44802,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>244</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -44913,7 +44823,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -44936,12 +44846,12 @@
       <c r="C7" s="266" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -44955,7 +44865,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -44978,12 +44888,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -45011,7 +44921,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -45046,19 +44956,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -45106,9 +45016,9 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
       <c r="I15" s="137"/>
-      <c r="J15" s="275"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="63"/>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -45117,10 +45027,10 @@
       <c r="A16" s="63"/>
       <c r="B16" s="78"/>
       <c r="C16" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>141</v>
@@ -45135,13 +45045,13 @@
         <v>138</v>
       </c>
       <c r="I16" s="196" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J16" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
+        <v>450</v>
+      </c>
+      <c r="K16" s="274"/>
+      <c r="L16" s="274"/>
       <c r="M16" s="63"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -45287,7 +45197,7 @@
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="66"/>
       <c r="B25" s="276" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C25" s="276"/>
       <c r="D25" s="276"/>
@@ -45305,12 +45215,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="273"/>
       <c r="F26" s="166" t="s">
         <v>130</v>
       </c>
@@ -45405,7 +45315,7 @@
       <c r="D29" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="268"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="75" t="s">
         <v>146</v>
       </c>
@@ -45469,7 +45379,7 @@
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
       <c r="D31" s="266"/>
-      <c r="E31" s="268"/>
+      <c r="E31" s="267"/>
       <c r="F31" s="75"/>
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
@@ -45942,10 +45852,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -45964,7 +45874,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="63"/>
       <c r="B3" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="63"/>
@@ -45986,14 +45896,14 @@
         <v>127</v>
       </c>
       <c r="C4" s="266" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="268"/>
+        <v>247</v>
+      </c>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
@@ -46007,14 +45917,14 @@
         <v>128</v>
       </c>
       <c r="C5" s="266" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="268"/>
+        <v>247</v>
+      </c>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="267"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -46028,7 +45938,7 @@
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="164"/>
@@ -46049,14 +45959,14 @@
         <v>177</v>
       </c>
       <c r="C7" s="266" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
+        <v>251</v>
+      </c>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="267"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
@@ -46070,7 +45980,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="164"/>
       <c r="E8" s="164"/>
@@ -46093,12 +46003,12 @@
       <c r="C9" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="268"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="267"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -46126,7 +46036,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="63"/>
@@ -46161,19 +46071,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="271"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="63"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
@@ -46215,10 +46125,10 @@
       <c r="A15" s="63"/>
       <c r="B15" s="74"/>
       <c r="C15" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>449</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>450</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>169</v>
@@ -46233,10 +46143,10 @@
         <v>138</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J15" s="190" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K15" s="164"/>
       <c r="L15" s="163"/>
@@ -46304,8 +46214,8 @@
       <c r="J17" s="266" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="267"/>
-      <c r="L17" s="268"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="267"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -46430,8 +46340,8 @@
       <c r="J21" s="266" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="267"/>
-      <c r="L21" s="268"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="267"/>
       <c r="M21" s="63"/>
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
@@ -46594,7 +46504,7 @@
     <row r="31" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="276" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" s="276"/>
       <c r="D31" s="276"/>
@@ -46612,12 +46522,12 @@
     </row>
     <row r="32" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="85"/>
-      <c r="B32" s="272" t="s">
+      <c r="B32" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="273"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="274"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="273"/>
       <c r="F32" s="166" t="s">
         <v>130</v>
       </c>
@@ -46712,7 +46622,7 @@
       <c r="D35" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="268"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="75" t="s">
         <v>146</v>
       </c>
@@ -46776,7 +46686,7 @@
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
       <c r="D37" s="266"/>
-      <c r="E37" s="268"/>
+      <c r="E37" s="267"/>
       <c r="F37" s="75"/>
       <c r="G37" s="77"/>
       <c r="H37" s="77"/>
@@ -47099,7 +47009,7 @@
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="63"/>
       <c r="B56" s="277" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="277"/>
       <c r="D56" s="277"/>
@@ -47119,12 +47029,12 @@
     </row>
     <row r="57" spans="1:15" s="86" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="85"/>
-      <c r="B57" s="272" t="s">
+      <c r="B57" s="271" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="273"/>
-      <c r="D57" s="273"/>
-      <c r="E57" s="274"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="273"/>
       <c r="F57" s="166" t="s">
         <v>130</v>
       </c>
@@ -47219,7 +47129,7 @@
       <c r="D60" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="268"/>
+      <c r="E60" s="267"/>
       <c r="F60" s="75" t="s">
         <v>146</v>
       </c>
@@ -47281,7 +47191,7 @@
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
       <c r="D62" s="266"/>
-      <c r="E62" s="268"/>
+      <c r="E62" s="267"/>
       <c r="F62" s="75"/>
       <c r="G62" s="77"/>
       <c r="H62" s="77"/>
